--- a/docs/designs/dataStats/dataStats.xlsx
+++ b/docs/designs/dataStats/dataStats.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
-    <sheet name="Relations" sheetId="2" r:id="rId2"/>
+    <sheet name="Histogram" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
   <si>
     <t>Input</t>
   </si>
@@ -181,13 +181,28 @@
   </si>
   <si>
     <t>Off</t>
+  </si>
+  <si>
+    <t>https://vega.github.io/vega/examples/population-pyramid/</t>
+  </si>
+  <si>
+    <t>https://vega.github.io/vega/examples/</t>
+  </si>
+  <si>
+    <t>https://github.com/vega/datalib</t>
+  </si>
+  <si>
+    <t>https://github.com/vega/vega-datasets/tree/master/data</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/package/d3-array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +251,14 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -654,11 +677,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -869,15 +893,6 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,8 +911,19 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2839,7 +2865,7 @@
   <dimension ref="A1:AF56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2907,7 +2933,7 @@
       <c r="G2" s="30">
         <v>5</v>
       </c>
-      <c r="H2" s="78"/>
+      <c r="H2" s="86"/>
       <c r="I2" s="18">
         <v>6</v>
       </c>
@@ -2961,7 +2987,7 @@
         <f>MEDIAN(AC2:AC31)</f>
         <v>41</v>
       </c>
-      <c r="C3" s="84">
+      <c r="C3" s="81">
         <f>ABS(B2-B3)</f>
         <v>4.93333333333333</v>
       </c>
@@ -2974,7 +3000,7 @@
       <c r="G3" s="31">
         <v>46</v>
       </c>
-      <c r="H3" s="79"/>
+      <c r="H3" s="87"/>
       <c r="I3" s="18">
         <v>37</v>
       </c>
@@ -2992,7 +3018,7 @@
         <f>MEDIAN(AE2:AE31)</f>
         <v>44.5</v>
       </c>
-      <c r="O3" s="84">
+      <c r="O3" s="81">
         <f>ABS(N2-N3)</f>
         <v>1.8999999999999986</v>
       </c>
@@ -3038,7 +3064,7 @@
       <c r="G4" s="31">
         <v>11</v>
       </c>
-      <c r="H4" s="79"/>
+      <c r="H4" s="87"/>
       <c r="I4" s="18">
         <v>66</v>
       </c>
@@ -3098,7 +3124,7 @@
       <c r="G5" s="31">
         <v>97</v>
       </c>
-      <c r="H5" s="79"/>
+      <c r="H5" s="87"/>
       <c r="I5" s="18">
         <v>11</v>
       </c>
@@ -3151,7 +3177,7 @@
       <c r="G6" s="31">
         <v>7</v>
       </c>
-      <c r="H6" s="79"/>
+      <c r="H6" s="87"/>
       <c r="I6" s="18">
         <v>82</v>
       </c>
@@ -3204,7 +3230,7 @@
       <c r="G7" s="31">
         <v>14</v>
       </c>
-      <c r="H7" s="79"/>
+      <c r="H7" s="87"/>
       <c r="I7" s="18">
         <v>93</v>
       </c>
@@ -3268,7 +3294,7 @@
       <c r="G8" s="31">
         <v>66</v>
       </c>
-      <c r="H8" s="79"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="18">
         <v>71</v>
       </c>
@@ -3336,7 +3362,7 @@
       <c r="G9" s="31">
         <v>35</v>
       </c>
-      <c r="H9" s="79"/>
+      <c r="H9" s="87"/>
       <c r="I9" s="18">
         <v>89</v>
       </c>
@@ -3407,7 +3433,7 @@
       <c r="G10" s="31">
         <v>69</v>
       </c>
-      <c r="H10" s="79"/>
+      <c r="H10" s="87"/>
       <c r="I10" s="18">
         <v>60</v>
       </c>
@@ -3476,7 +3502,7 @@
       <c r="G11" s="32">
         <v>92</v>
       </c>
-      <c r="H11" s="80"/>
+      <c r="H11" s="88"/>
       <c r="I11" s="18">
         <v>20</v>
       </c>
@@ -3608,14 +3634,14 @@
       <c r="A14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="83">
+      <c r="B14" s="80">
         <f>AC35</f>
         <v>0.8666666666666667</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N14" s="83">
+      <c r="N14" s="80">
         <f>AE35</f>
         <v>0.9</v>
       </c>
@@ -3789,7 +3815,7 @@
       <c r="G18" s="34">
         <v>5</v>
       </c>
-      <c r="H18" s="86">
+      <c r="H18" s="83">
         <v>0</v>
       </c>
       <c r="I18" s="34">
@@ -3845,7 +3871,7 @@
       <c r="G19" s="37">
         <v>9</v>
       </c>
-      <c r="H19" s="87">
+      <c r="H19" s="84">
         <v>1</v>
       </c>
       <c r="I19" s="37">
@@ -3897,7 +3923,7 @@
       <c r="G20" s="37">
         <v>3</v>
       </c>
-      <c r="H20" s="87">
+      <c r="H20" s="84">
         <v>2</v>
       </c>
       <c r="I20" s="37">
@@ -3951,7 +3977,7 @@
       <c r="G21" s="37">
         <v>9</v>
       </c>
-      <c r="H21" s="87">
+      <c r="H21" s="84">
         <v>3</v>
       </c>
       <c r="I21" s="37">
@@ -4001,7 +4027,7 @@
       <c r="G22" s="37">
         <v>6</v>
       </c>
-      <c r="H22" s="87">
+      <c r="H22" s="84">
         <v>4</v>
       </c>
       <c r="I22" s="37"/>
@@ -4043,7 +4069,7 @@
       <c r="G23" s="37">
         <v>8</v>
       </c>
-      <c r="H23" s="87">
+      <c r="H23" s="84">
         <v>5</v>
       </c>
       <c r="I23" s="37">
@@ -4088,7 +4114,7 @@
       <c r="G24" s="37">
         <v>5</v>
       </c>
-      <c r="H24" s="87">
+      <c r="H24" s="84">
         <v>6</v>
       </c>
       <c r="I24" s="37">
@@ -4132,7 +4158,7 @@
       <c r="G25" s="37">
         <v>3</v>
       </c>
-      <c r="H25" s="87">
+      <c r="H25" s="84">
         <v>7</v>
       </c>
       <c r="I25" s="37">
@@ -4144,6 +4170,9 @@
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="38"/>
+      <c r="Q25" s="89" t="s">
+        <v>50</v>
+      </c>
       <c r="AB25" s="4">
         <v>7</v>
       </c>
@@ -4166,7 +4195,7 @@
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="87">
+      <c r="H26" s="84">
         <v>8</v>
       </c>
       <c r="I26" s="37">
@@ -4178,6 +4207,9 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="38"/>
+      <c r="Q26" s="89" t="s">
+        <v>51</v>
+      </c>
       <c r="AB26" s="4">
         <v>7</v>
       </c>
@@ -4208,7 +4240,7 @@
       <c r="G27" s="40">
         <v>5</v>
       </c>
-      <c r="H27" s="88">
+      <c r="H27" s="85">
         <v>9</v>
       </c>
       <c r="I27" s="40">
@@ -4226,6 +4258,9 @@
       <c r="M27" s="41">
         <v>5</v>
       </c>
+      <c r="Q27" s="89" t="s">
+        <v>52</v>
+      </c>
       <c r="AB27" s="4">
         <v>9</v>
       </c>
@@ -4244,6 +4279,9 @@
     </row>
     <row r="28" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J28" s="1"/>
+      <c r="Q28" s="89" t="s">
+        <v>53</v>
+      </c>
       <c r="AB28" s="4">
         <v>9</v>
       </c>
@@ -4264,6 +4302,9 @@
       <c r="I29" t="s">
         <v>1</v>
       </c>
+      <c r="Q29" s="89" t="s">
+        <v>54</v>
+      </c>
       <c r="AB29" s="4">
         <v>9</v>
       </c>
@@ -4288,7 +4329,7 @@
         <f>B13</f>
         <v>30</v>
       </c>
-      <c r="L30" s="82" t="s">
+      <c r="L30" s="79" t="s">
         <v>44</v>
       </c>
       <c r="M30" s="14">
@@ -4315,7 +4356,7 @@
       <c r="C31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="83">
+      <c r="D31" s="80">
         <f>B14</f>
         <v>0.8666666666666667</v>
       </c>
@@ -4328,7 +4369,7 @@
       <c r="L31" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="83">
+      <c r="M31" s="80">
         <f>N14</f>
         <v>0.9</v>
       </c>
@@ -4364,7 +4405,7 @@
       <c r="G32" s="74">
         <v>1</v>
       </c>
-      <c r="H32" s="86">
+      <c r="H32" s="83">
         <v>0</v>
       </c>
       <c r="I32" s="73">
@@ -4402,7 +4443,7 @@
       <c r="G33" s="72">
         <v>0</v>
       </c>
-      <c r="H33" s="87">
+      <c r="H33" s="84">
         <v>1</v>
       </c>
       <c r="I33" s="72">
@@ -4448,7 +4489,7 @@
       <c r="G34" s="37">
         <v>3</v>
       </c>
-      <c r="H34" s="87">
+      <c r="H34" s="84">
         <v>2</v>
       </c>
       <c r="I34" s="37">
@@ -4489,7 +4530,7 @@
       <c r="G35" s="37">
         <v>1</v>
       </c>
-      <c r="H35" s="87">
+      <c r="H35" s="84">
         <v>3</v>
       </c>
       <c r="I35" s="37">
@@ -4506,11 +4547,11 @@
       <c r="AB35" t="s">
         <v>39</v>
       </c>
-      <c r="AC35" s="81">
+      <c r="AC35" s="78">
         <f>AC33/AC34</f>
         <v>0.8666666666666667</v>
       </c>
-      <c r="AE35" s="81">
+      <c r="AE35" s="78">
         <f>AE33/AE34</f>
         <v>0.9</v>
       </c>
@@ -4532,7 +4573,7 @@
       <c r="G36" s="68">
         <v>3</v>
       </c>
-      <c r="H36" s="87">
+      <c r="H36" s="84">
         <v>4</v>
       </c>
       <c r="I36" s="37"/>
@@ -4557,7 +4598,7 @@
       <c r="G37" s="37">
         <v>8</v>
       </c>
-      <c r="H37" s="87">
+      <c r="H37" s="84">
         <v>5</v>
       </c>
       <c r="I37" s="68">
@@ -4591,7 +4632,7 @@
       <c r="G38" s="37">
         <v>5</v>
       </c>
-      <c r="H38" s="87">
+      <c r="H38" s="84">
         <v>6</v>
       </c>
       <c r="I38" s="53">
@@ -4621,7 +4662,7 @@
       <c r="G39" s="72">
         <v>3</v>
       </c>
-      <c r="H39" s="87">
+      <c r="H39" s="84">
         <v>7</v>
       </c>
       <c r="I39" s="72">
@@ -4648,7 +4689,7 @@
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
-      <c r="H40" s="87">
+      <c r="H40" s="84">
         <v>8</v>
       </c>
       <c r="I40" s="72">
@@ -4682,7 +4723,7 @@
       <c r="G41" s="71">
         <v>5</v>
       </c>
-      <c r="H41" s="88">
+      <c r="H41" s="85">
         <v>9</v>
       </c>
       <c r="I41" s="69">
@@ -4739,7 +4780,7 @@
       <c r="G47" s="74">
         <v>0</v>
       </c>
-      <c r="H47" s="86">
+      <c r="H47" s="83">
         <v>0</v>
       </c>
       <c r="I47" s="73">
@@ -4771,7 +4812,7 @@
       <c r="G48" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="87">
+      <c r="H48" s="84">
         <v>1</v>
       </c>
       <c r="I48" s="72" t="s">
@@ -4802,7 +4843,7 @@
       <c r="G49" s="37">
         <v>2</v>
       </c>
-      <c r="H49" s="87">
+      <c r="H49" s="84">
         <v>2</v>
       </c>
       <c r="I49" s="37">
@@ -4828,7 +4869,7 @@
       <c r="G50" s="37">
         <v>0</v>
       </c>
-      <c r="H50" s="87">
+      <c r="H50" s="84">
         <v>3</v>
       </c>
       <c r="I50" s="37">
@@ -4858,14 +4899,14 @@
       <c r="G51" s="68">
         <v>2</v>
       </c>
-      <c r="H51" s="87">
+      <c r="H51" s="84">
         <v>4</v>
       </c>
       <c r="I51" s="37"/>
       <c r="J51" s="37"/>
       <c r="K51" s="37"/>
       <c r="L51" s="38"/>
-      <c r="M51" s="85" t="s">
+      <c r="M51" s="82" t="s">
         <v>47</v>
       </c>
       <c r="N51">
@@ -4881,7 +4922,7 @@
       <c r="G52" s="37">
         <v>8</v>
       </c>
-      <c r="H52" s="87">
+      <c r="H52" s="84">
         <v>5</v>
       </c>
       <c r="I52" s="68">
@@ -4911,7 +4952,7 @@
       <c r="G53" s="37">
         <v>4</v>
       </c>
-      <c r="H53" s="87">
+      <c r="H53" s="84">
         <v>6</v>
       </c>
       <c r="I53" s="53">
@@ -4935,7 +4976,7 @@
       <c r="G54" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="H54" s="87">
+      <c r="H54" s="84">
         <v>7</v>
       </c>
       <c r="I54" s="72">
@@ -4960,7 +5001,7 @@
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
-      <c r="H55" s="87">
+      <c r="H55" s="84">
         <v>8</v>
       </c>
       <c r="I55" s="72">
@@ -4988,7 +5029,7 @@
       <c r="G56" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="H56" s="88">
+      <c r="H56" s="85">
         <v>9</v>
       </c>
       <c r="I56" s="69" t="s">
@@ -5138,8 +5179,15 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="Q25" r:id="rId1"/>
+    <hyperlink ref="Q26" r:id="rId2"/>
+    <hyperlink ref="Q27" r:id="rId3"/>
+    <hyperlink ref="Q28" r:id="rId4"/>
+    <hyperlink ref="Q29" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
--- a/docs/designs/dataStats/dataStats.xlsx
+++ b/docs/designs/dataStats/dataStats.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\see_it_done\docs\designs\dataStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\see_it_done\docs\designs\dataStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C369F-004F-4F8A-909F-5B618BF6BEFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="Histogram" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
   <si>
     <t>Input</t>
   </si>
@@ -197,11 +198,14 @@
   <si>
     <t>https://www.npmjs.com/package/d3-array</t>
   </si>
+  <si>
+    <t>trunc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,8 +311,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -676,13 +686,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -911,6 +988,7 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -920,7 +998,40 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -957,7 +1068,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1004,7 +1121,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1051,7 +1174,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Right Brace 7"/>
+        <xdr:cNvPr id="8" name="Right Brace 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1093,23 +1222,82 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2295525" y="8201025"/>
+          <a:off x="2295525" y="8258175"/>
           <a:ext cx="0" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826E96CF-620B-4586-BE56-5047A68EDC06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2305050" y="11058525"/>
+          <a:ext cx="0" cy="676275"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1400,11 +1588,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AG42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:AL42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="AL14" sqref="AL14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,9 +1612,10 @@
     <col min="24" max="32" width="4" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="4.5703125" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="36" width="4.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
@@ -1437,7 +1626,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N3" s="1">
         <v>2</v>
       </c>
@@ -1499,7 +1688,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
@@ -1547,7 +1736,7 @@
       <c r="AF4" s="1"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="C5" s="5">
         <v>1</v>
       </c>
@@ -1594,7 +1783,7 @@
       <c r="AF5" s="1"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="6" t="s">
         <v>1</v>
       </c>
@@ -1658,15 +1847,37 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AG7">
+        <v>15</v>
+      </c>
+      <c r="AI7">
+        <v>20</v>
+      </c>
+      <c r="AJ7">
+        <f>AG7/AI7</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG8">
+        <v>17</v>
+      </c>
+      <c r="AI8">
+        <v>20</v>
+      </c>
+      <c r="AJ8">
+        <f>AG8/AI8</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1744,8 +1955,15 @@
       <c r="AG9" s="48">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI9" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ9">
+        <f>AG9/AI9</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1991,7 @@
       <c r="AF10" s="1"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1802,7 +2020,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1875,8 +2093,15 @@
       <c r="AG12" s="48">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI12" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ12">
+        <f>AG12/AI12</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1905,9 +2130,24 @@
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG13" s="1">
+        <v>41</v>
+      </c>
+      <c r="AI13">
+        <v>20</v>
+      </c>
+      <c r="AJ13">
+        <f>AG13/AI13</f>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="AK13">
+        <v>0.9</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1938,7 +2178,7 @@
       <c r="AF14" s="1"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -2011,8 +2251,15 @@
       <c r="AG15" s="48">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AI15" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ15">
+        <f>AG15/AI15</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -2043,7 +2290,7 @@
       <c r="AF16" s="1"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B17" s="57">
         <v>0.7</v>
       </c>
@@ -2076,7 +2323,7 @@
       <c r="AF17" s="1"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
         <v>44</v>
       </c>
@@ -2146,8 +2393,15 @@
       <c r="AG18" s="48">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI18" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ18">
+        <f>AG18/AI18</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
@@ -2175,7 +2429,7 @@
       <c r="AF19" s="1"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N20" s="5"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -2197,7 +2451,7 @@
       <c r="AF20" s="1"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>0</v>
       </c>
@@ -2261,8 +2515,15 @@
       <c r="AG21" s="48">
         <v>100</v>
       </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI21" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ21">
+        <f>AG21/AI21</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N22" s="5"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -2284,7 +2545,7 @@
       <c r="AF22" s="1"/>
       <c r="AG22" s="1"/>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N23" s="5"/>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
@@ -2306,7 +2567,7 @@
       <c r="AF23" s="1"/>
       <c r="AG23" s="1"/>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>0</v>
       </c>
@@ -2370,8 +2631,15 @@
       <c r="AG24" s="48">
         <v>120</v>
       </c>
-    </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI24" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ24">
+        <f>AG24/AI24</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N25" s="43"/>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -2393,7 +2661,7 @@
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N26" s="43"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -2415,7 +2683,7 @@
       <c r="AF26" s="7"/>
       <c r="AG26" s="7"/>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>0</v>
       </c>
@@ -2479,8 +2747,15 @@
       <c r="AG27" s="49">
         <v>140</v>
       </c>
-    </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI27" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ27">
+        <f>AG27/AI27</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N28" s="15"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -2502,10 +2777,10 @@
       <c r="AF28" s="7"/>
       <c r="AG28" s="7"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N29" s="15"/>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>0</v>
       </c>
@@ -2569,14 +2844,21 @@
       <c r="AG30" s="50">
         <v>160</v>
       </c>
-    </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="AI30" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ30">
+        <f>AG30/AI30</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N31" s="15"/>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="13:36" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>0</v>
       </c>
@@ -2640,14 +2922,21 @@
       <c r="AG33" s="50">
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="13:33" x14ac:dyDescent="0.25">
+      <c r="AI33" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ33">
+        <f>AG33/AI33</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="13:36" x14ac:dyDescent="0.25">
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="13:36" x14ac:dyDescent="0.25">
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="13:36" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>0</v>
       </c>
@@ -2711,14 +3000,21 @@
       <c r="AG36" s="50">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="13:33" x14ac:dyDescent="0.25">
+      <c r="AI36" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ36">
+        <f>AG36/AI36</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="13:36" x14ac:dyDescent="0.25">
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="13:36" x14ac:dyDescent="0.25">
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="13:36" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>0</v>
       </c>
@@ -2782,14 +3078,21 @@
       <c r="AG39" s="18">
         <v>300</v>
       </c>
-    </row>
-    <row r="40" spans="13:33" x14ac:dyDescent="0.25">
+      <c r="AI39" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ39">
+        <f>AG39/AI39</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="13:36" x14ac:dyDescent="0.25">
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="13:36" x14ac:dyDescent="0.25">
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="13:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="13:36" x14ac:dyDescent="0.25">
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -2852,6 +3155,13 @@
       </c>
       <c r="AG42" s="18">
         <v>400</v>
+      </c>
+      <c r="AI42" s="8">
+        <v>20</v>
+      </c>
+      <c r="AJ42">
+        <f>AG42/AI42</f>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2861,11 +3171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AF70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2885,7 +3195,7 @@
     <col min="19" max="19" width="4.42578125" customWidth="1"/>
     <col min="22" max="22" width="4" customWidth="1"/>
     <col min="25" max="25" width="5" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="12.140625" customWidth="1"/>
+    <col min="28" max="28" width="8.5703125" customWidth="1"/>
     <col min="29" max="29" width="5.42578125" customWidth="1"/>
     <col min="31" max="31" width="4.7109375" customWidth="1"/>
   </cols>
@@ -2933,7 +3243,7 @@
       <c r="G2" s="30">
         <v>5</v>
       </c>
-      <c r="H2" s="86"/>
+      <c r="H2" s="87"/>
       <c r="I2" s="18">
         <v>6</v>
       </c>
@@ -3000,7 +3310,7 @@
       <c r="G3" s="31">
         <v>46</v>
       </c>
-      <c r="H3" s="87"/>
+      <c r="H3" s="88"/>
       <c r="I3" s="18">
         <v>37</v>
       </c>
@@ -3064,7 +3374,7 @@
       <c r="G4" s="31">
         <v>11</v>
       </c>
-      <c r="H4" s="87"/>
+      <c r="H4" s="88"/>
       <c r="I4" s="18">
         <v>66</v>
       </c>
@@ -3124,7 +3434,7 @@
       <c r="G5" s="31">
         <v>97</v>
       </c>
-      <c r="H5" s="87"/>
+      <c r="H5" s="88"/>
       <c r="I5" s="18">
         <v>11</v>
       </c>
@@ -3177,7 +3487,7 @@
       <c r="G6" s="31">
         <v>7</v>
       </c>
-      <c r="H6" s="87"/>
+      <c r="H6" s="88"/>
       <c r="I6" s="18">
         <v>82</v>
       </c>
@@ -3230,7 +3540,7 @@
       <c r="G7" s="31">
         <v>14</v>
       </c>
-      <c r="H7" s="87"/>
+      <c r="H7" s="88"/>
       <c r="I7" s="18">
         <v>93</v>
       </c>
@@ -3294,7 +3604,7 @@
       <c r="G8" s="31">
         <v>66</v>
       </c>
-      <c r="H8" s="87"/>
+      <c r="H8" s="88"/>
       <c r="I8" s="18">
         <v>71</v>
       </c>
@@ -3362,7 +3672,7 @@
       <c r="G9" s="31">
         <v>35</v>
       </c>
-      <c r="H9" s="87"/>
+      <c r="H9" s="88"/>
       <c r="I9" s="18">
         <v>89</v>
       </c>
@@ -3433,7 +3743,7 @@
       <c r="G10" s="31">
         <v>69</v>
       </c>
-      <c r="H10" s="87"/>
+      <c r="H10" s="88"/>
       <c r="I10" s="18">
         <v>60</v>
       </c>
@@ -3502,7 +3812,7 @@
       <c r="G11" s="32">
         <v>92</v>
       </c>
-      <c r="H11" s="88"/>
+      <c r="H11" s="89"/>
       <c r="I11" s="18">
         <v>20</v>
       </c>
@@ -4170,7 +4480,7 @@
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="38"/>
-      <c r="Q25" s="89" t="s">
+      <c r="Q25" s="86" t="s">
         <v>50</v>
       </c>
       <c r="AB25" s="4">
@@ -4207,7 +4517,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
       <c r="M26" s="38"/>
-      <c r="Q26" s="89" t="s">
+      <c r="Q26" s="86" t="s">
         <v>51</v>
       </c>
       <c r="AB26" s="4">
@@ -4258,7 +4568,7 @@
       <c r="M27" s="41">
         <v>5</v>
       </c>
-      <c r="Q27" s="89" t="s">
+      <c r="Q27" s="86" t="s">
         <v>52</v>
       </c>
       <c r="AB27" s="4">
@@ -4279,7 +4589,7 @@
     </row>
     <row r="28" spans="3:32" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J28" s="1"/>
-      <c r="Q28" s="89" t="s">
+      <c r="Q28" s="86" t="s">
         <v>53</v>
       </c>
       <c r="AB28" s="4">
@@ -4302,7 +4612,7 @@
       <c r="I29" t="s">
         <v>1</v>
       </c>
-      <c r="Q29" s="89" t="s">
+      <c r="Q29" s="86" t="s">
         <v>54</v>
       </c>
       <c r="AB29" s="4">
@@ -5052,8 +5362,161 @@
         <v>24.75</v>
       </c>
     </row>
+    <row r="60" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C61" s="33"/>
+      <c r="D61" s="94"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="96">
+        <v>9</v>
+      </c>
+      <c r="I61" s="94"/>
+      <c r="J61" s="94"/>
+      <c r="K61" s="94"/>
+      <c r="L61" s="94"/>
+      <c r="M61" s="97"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C62" s="36"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="84">
+        <v>8</v>
+      </c>
+      <c r="I62" s="90"/>
+      <c r="J62" s="90"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="38"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C63" s="36"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="84">
+        <v>7</v>
+      </c>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="37"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="38"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C64" s="36"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="84">
+        <v>6</v>
+      </c>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="38"/>
+    </row>
+    <row r="65" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C65" s="36"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="90"/>
+      <c r="H65" s="84">
+        <v>5</v>
+      </c>
+      <c r="I65" s="68"/>
+      <c r="J65" s="90"/>
+      <c r="K65" s="37"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="38"/>
+    </row>
+    <row r="66" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C66" s="36"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="90"/>
+      <c r="G66" s="68"/>
+      <c r="H66" s="84">
+        <v>4</v>
+      </c>
+      <c r="I66" s="37"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="37"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="38"/>
+    </row>
+    <row r="67" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C67" s="36"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="90"/>
+      <c r="F67" s="90"/>
+      <c r="G67" s="90"/>
+      <c r="H67" s="93">
+        <v>3</v>
+      </c>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="38"/>
+    </row>
+    <row r="68" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C68" s="36"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
+      <c r="F68" s="91"/>
+      <c r="G68" s="90"/>
+      <c r="H68" s="93">
+        <v>2</v>
+      </c>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="38"/>
+    </row>
+    <row r="69" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C69" s="36"/>
+      <c r="D69" s="90"/>
+      <c r="E69" s="90"/>
+      <c r="F69" s="90"/>
+      <c r="G69" s="90"/>
+      <c r="H69" s="93">
+        <v>1</v>
+      </c>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="38"/>
+    </row>
+    <row r="70" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C70" s="98"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
+      <c r="G70" s="99"/>
+      <c r="H70" s="100">
+        <v>0</v>
+      </c>
+      <c r="I70" s="99"/>
+      <c r="J70" s="99"/>
+      <c r="K70" s="99"/>
+      <c r="L70" s="101"/>
+      <c r="M70" s="41"/>
+    </row>
   </sheetData>
-  <sortState ref="AE2:AE31">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE2:AE31">
     <sortCondition ref="AE2:AE31"/>
   </sortState>
   <mergeCells count="1">
@@ -5180,11 +5643,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q25" r:id="rId1"/>
-    <hyperlink ref="Q26" r:id="rId2"/>
-    <hyperlink ref="Q27" r:id="rId3"/>
-    <hyperlink ref="Q28" r:id="rId4"/>
-    <hyperlink ref="Q29" r:id="rId5"/>
+    <hyperlink ref="Q25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="Q26" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="Q27" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="Q28" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="Q29" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>

--- a/docs/designs/dataStats/dataStats.xlsx
+++ b/docs/designs/dataStats/dataStats.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\see_it_done\docs\designs\dataStats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Git\see_it_done\docs\designs\dataStats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202C369F-004F-4F8A-909F-5B618BF6BEFD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="Histogram" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -205,7 +204,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -989,15 +988,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1030,6 +1020,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1071,7 +1070,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,7 +1123,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1177,7 +1176,7 @@
         <xdr:cNvPr id="8" name="Right Brace 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1235,7 +1234,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1288,7 +1287,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826E96CF-620B-4586-BE56-5047A68EDC06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{826E96CF-620B-4586-BE56-5047A68EDC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,11 +1587,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AL42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="AL14" sqref="AL14"/>
+      <selection activeCell="C28" sqref="C28:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3171,7 +3170,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF70"/>
   <sheetViews>
     <sheetView topLeftCell="A58" workbookViewId="0">
@@ -3243,7 +3242,7 @@
       <c r="G2" s="30">
         <v>5</v>
       </c>
-      <c r="H2" s="87"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="18">
         <v>6</v>
       </c>
@@ -3310,7 +3309,7 @@
       <c r="G3" s="31">
         <v>46</v>
       </c>
-      <c r="H3" s="88"/>
+      <c r="H3" s="100"/>
       <c r="I3" s="18">
         <v>37</v>
       </c>
@@ -3374,7 +3373,7 @@
       <c r="G4" s="31">
         <v>11</v>
       </c>
-      <c r="H4" s="88"/>
+      <c r="H4" s="100"/>
       <c r="I4" s="18">
         <v>66</v>
       </c>
@@ -3434,7 +3433,7 @@
       <c r="G5" s="31">
         <v>97</v>
       </c>
-      <c r="H5" s="88"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="18">
         <v>11</v>
       </c>
@@ -3487,7 +3486,7 @@
       <c r="G6" s="31">
         <v>7</v>
       </c>
-      <c r="H6" s="88"/>
+      <c r="H6" s="100"/>
       <c r="I6" s="18">
         <v>82</v>
       </c>
@@ -3540,7 +3539,7 @@
       <c r="G7" s="31">
         <v>14</v>
       </c>
-      <c r="H7" s="88"/>
+      <c r="H7" s="100"/>
       <c r="I7" s="18">
         <v>93</v>
       </c>
@@ -3604,7 +3603,7 @@
       <c r="G8" s="31">
         <v>66</v>
       </c>
-      <c r="H8" s="88"/>
+      <c r="H8" s="100"/>
       <c r="I8" s="18">
         <v>71</v>
       </c>
@@ -3672,7 +3671,7 @@
       <c r="G9" s="31">
         <v>35</v>
       </c>
-      <c r="H9" s="88"/>
+      <c r="H9" s="100"/>
       <c r="I9" s="18">
         <v>89</v>
       </c>
@@ -3743,7 +3742,7 @@
       <c r="G10" s="31">
         <v>69</v>
       </c>
-      <c r="H10" s="88"/>
+      <c r="H10" s="100"/>
       <c r="I10" s="18">
         <v>60</v>
       </c>
@@ -3812,7 +3811,7 @@
       <c r="G11" s="32">
         <v>92</v>
       </c>
-      <c r="H11" s="89"/>
+      <c r="H11" s="101"/>
       <c r="I11" s="18">
         <v>20</v>
       </c>
@@ -5367,18 +5366,18 @@
     </row>
     <row r="61" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C61" s="33"/>
-      <c r="D61" s="94"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="96">
+      <c r="D61" s="91"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="93">
         <v>9</v>
       </c>
-      <c r="I61" s="94"/>
-      <c r="J61" s="94"/>
-      <c r="K61" s="94"/>
-      <c r="L61" s="94"/>
-      <c r="M61" s="97"/>
+      <c r="I61" s="91"/>
+      <c r="J61" s="91"/>
+      <c r="K61" s="91"/>
+      <c r="L61" s="91"/>
+      <c r="M61" s="94"/>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C62" s="36"/>
@@ -5389,8 +5388,8 @@
       <c r="H62" s="84">
         <v>8</v>
       </c>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
+      <c r="I62" s="87"/>
+      <c r="J62" s="87"/>
       <c r="K62" s="37"/>
       <c r="L62" s="37"/>
       <c r="M62" s="38"/>
@@ -5398,31 +5397,31 @@
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C63" s="36"/>
       <c r="D63" s="37"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
+      <c r="E63" s="87"/>
+      <c r="F63" s="87"/>
+      <c r="G63" s="87"/>
       <c r="H63" s="84">
         <v>7</v>
       </c>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
+      <c r="I63" s="87"/>
+      <c r="J63" s="87"/>
       <c r="K63" s="37"/>
       <c r="L63" s="37"/>
       <c r="M63" s="38"/>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C64" s="36"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
+      <c r="D64" s="87"/>
+      <c r="E64" s="87"/>
+      <c r="F64" s="87"/>
+      <c r="G64" s="87"/>
       <c r="H64" s="84">
         <v>6</v>
       </c>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
+      <c r="I64" s="87"/>
+      <c r="J64" s="87"/>
+      <c r="K64" s="87"/>
+      <c r="L64" s="87"/>
       <c r="M64" s="38"/>
     </row>
     <row r="65" spans="3:13" x14ac:dyDescent="0.25">
@@ -5430,12 +5429,12 @@
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
-      <c r="G65" s="90"/>
+      <c r="G65" s="87"/>
       <c r="H65" s="84">
         <v>5</v>
       </c>
       <c r="I65" s="68"/>
-      <c r="J65" s="90"/>
+      <c r="J65" s="87"/>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
       <c r="M65" s="38"/>
@@ -5444,7 +5443,7 @@
       <c r="C66" s="36"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
-      <c r="F66" s="90"/>
+      <c r="F66" s="87"/>
       <c r="G66" s="68"/>
       <c r="H66" s="84">
         <v>4</v>
@@ -5457,16 +5456,16 @@
     </row>
     <row r="67" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C67" s="36"/>
-      <c r="D67" s="92"/>
-      <c r="E67" s="90"/>
-      <c r="F67" s="90"/>
-      <c r="G67" s="90"/>
-      <c r="H67" s="93">
+      <c r="D67" s="89"/>
+      <c r="E67" s="87"/>
+      <c r="F67" s="87"/>
+      <c r="G67" s="87"/>
+      <c r="H67" s="90">
         <v>3</v>
       </c>
-      <c r="I67" s="90"/>
-      <c r="J67" s="90"/>
-      <c r="K67" s="90"/>
+      <c r="I67" s="87"/>
+      <c r="J67" s="87"/>
+      <c r="K67" s="87"/>
       <c r="L67" s="37"/>
       <c r="M67" s="38"/>
     </row>
@@ -5474,49 +5473,49 @@
       <c r="C68" s="36"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="90"/>
-      <c r="H68" s="93">
+      <c r="F68" s="88"/>
+      <c r="G68" s="87"/>
+      <c r="H68" s="90">
         <v>2</v>
       </c>
-      <c r="I68" s="90"/>
-      <c r="J68" s="90"/>
-      <c r="K68" s="90"/>
+      <c r="I68" s="87"/>
+      <c r="J68" s="87"/>
+      <c r="K68" s="87"/>
       <c r="L68" s="37"/>
       <c r="M68" s="38"/>
     </row>
     <row r="69" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C69" s="36"/>
-      <c r="D69" s="90"/>
-      <c r="E69" s="90"/>
-      <c r="F69" s="90"/>
-      <c r="G69" s="90"/>
-      <c r="H69" s="93">
+      <c r="D69" s="87"/>
+      <c r="E69" s="87"/>
+      <c r="F69" s="87"/>
+      <c r="G69" s="87"/>
+      <c r="H69" s="90">
         <v>1</v>
       </c>
-      <c r="I69" s="90"/>
-      <c r="J69" s="90"/>
-      <c r="K69" s="90"/>
-      <c r="L69" s="90"/>
+      <c r="I69" s="87"/>
+      <c r="J69" s="87"/>
+      <c r="K69" s="87"/>
+      <c r="L69" s="87"/>
       <c r="M69" s="38"/>
     </row>
     <row r="70" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="98"/>
-      <c r="D70" s="99"/>
-      <c r="E70" s="99"/>
-      <c r="F70" s="99"/>
-      <c r="G70" s="99"/>
-      <c r="H70" s="100">
+      <c r="C70" s="95"/>
+      <c r="D70" s="96"/>
+      <c r="E70" s="96"/>
+      <c r="F70" s="96"/>
+      <c r="G70" s="96"/>
+      <c r="H70" s="97">
         <v>0</v>
       </c>
-      <c r="I70" s="99"/>
-      <c r="J70" s="99"/>
-      <c r="K70" s="99"/>
-      <c r="L70" s="101"/>
+      <c r="I70" s="96"/>
+      <c r="J70" s="96"/>
+      <c r="K70" s="96"/>
+      <c r="L70" s="98"/>
       <c r="M70" s="41"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AE2:AE31">
+  <sortState ref="AE2:AE31">
     <sortCondition ref="AE2:AE31"/>
   </sortState>
   <mergeCells count="1">
@@ -5643,11 +5642,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="Q25" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="Q26" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="Q27" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="Q28" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="Q29" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="Q25" r:id="rId1"/>
+    <hyperlink ref="Q26" r:id="rId2"/>
+    <hyperlink ref="Q27" r:id="rId3"/>
+    <hyperlink ref="Q28" r:id="rId4"/>
+    <hyperlink ref="Q29" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>

--- a/docs/designs/dataStats/dataStats.xlsx
+++ b/docs/designs/dataStats/dataStats.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
     <sheet name="Histogram" sheetId="2" r:id="rId2"/>
+    <sheet name="Exersice" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
   <si>
     <t>Input</t>
   </si>
@@ -200,11 +201,23 @@
   <si>
     <t>trunc</t>
   </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Z-Score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -758,7 +771,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1031,6 +1044,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1070,7 +1084,7 @@
         <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1123,7 +1137,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1176,7 +1190,7 @@
         <xdr:cNvPr id="8" name="Right Brace 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1248,7 @@
         <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1287,7 +1301,7 @@
         <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{826E96CF-620B-4586-BE56-5047A68EDC06}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{826E96CF-620B-4586-BE56-5047A68EDC06}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AL42"/>
+  <dimension ref="A2:AL47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28:D34"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2857,7 +2871,7 @@
     <row r="32" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N32" s="15"/>
     </row>
-    <row r="33" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>0</v>
       </c>
@@ -2929,13 +2943,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N34" s="15"/>
     </row>
-    <row r="35" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N35" s="15"/>
     </row>
-    <row r="36" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M36">
         <v>0</v>
       </c>
@@ -3007,13 +3021,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M39">
         <v>0</v>
       </c>
@@ -3085,13 +3099,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:36" x14ac:dyDescent="0.25">
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="13:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:36" x14ac:dyDescent="0.25">
       <c r="M42" s="7">
         <v>0</v>
       </c>
@@ -3161,6 +3175,70 @@
       <c r="AJ42">
         <f>AG42/AI42</f>
         <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="G45">
+        <f>VARP(B45:F45)</f>
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f>AVERAGE(B45:F45)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ref="G46:G47" si="0">VARP(B46:F46)</f>
+        <v>0.15999999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="2:36" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>14</v>
+      </c>
+      <c r="E47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5652,4 +5730,159 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
   <drawing r:id="rId7"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="81" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="50">
+        <v>1</v>
+      </c>
+      <c r="C2" s="50">
+        <f>AVERAGE(B$2:B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" s="50">
+        <f>_xlfn.STDEV.P(B$2:B$4)</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="E2" s="50">
+        <f>(B2-C2)/D2</f>
+        <v>-1.2247448713915889</v>
+      </c>
+      <c r="G2" s="50">
+        <v>10</v>
+      </c>
+      <c r="H2" s="50">
+        <f>AVERAGE(G$2:G$4)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="I2" s="50">
+        <f>_xlfn.STDEV.P(G$2:G$4)</f>
+        <v>12.472191289246471</v>
+      </c>
+      <c r="J2" s="50">
+        <f>(G2-H2)/I2</f>
+        <v>-1.0690449676496976</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="50">
+        <v>2</v>
+      </c>
+      <c r="C3" s="50">
+        <f>AVERAGE(B$2:B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="D3" s="50">
+        <f t="shared" ref="D3:D4" si="0">_xlfn.STDEV.P(B$2:B$4)</f>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="E3" s="50">
+        <f t="shared" ref="E3:E4" si="1">(B3-C3)/D3</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="50">
+        <v>20</v>
+      </c>
+      <c r="H3" s="50">
+        <f>AVERAGE(G$2:G$4)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="I3" s="50">
+        <f t="shared" ref="I3:I4" si="2">_xlfn.STDEV.P(G$2:G$4)</f>
+        <v>12.472191289246471</v>
+      </c>
+      <c r="J3" s="50">
+        <f t="shared" ref="J3:J4" si="3">(G3-H3)/I3</f>
+        <v>-0.26726124191242429</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="50">
+        <v>3</v>
+      </c>
+      <c r="C4" s="50">
+        <f>AVERAGE(B$2:B$4)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="50">
+        <f t="shared" si="0"/>
+        <v>0.81649658092772603</v>
+      </c>
+      <c r="E4" s="50">
+        <f t="shared" si="1"/>
+        <v>1.2247448713915889</v>
+      </c>
+      <c r="G4" s="50">
+        <v>40</v>
+      </c>
+      <c r="H4" s="50">
+        <f>AVERAGE(G$2:G$4)</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="I4" s="50">
+        <f t="shared" si="2"/>
+        <v>12.472191289246471</v>
+      </c>
+      <c r="J4" s="50">
+        <f t="shared" si="3"/>
+        <v>1.3363062095621221</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J6" s="102"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="J7" s="102"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>